--- a/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 22-23" sheetId="6" r:id="rId1"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId1"/>
     <sheet name="Week 24-25" sheetId="7" r:id="rId2"/>
     <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>分组</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>王自冲</t>
-  </si>
-  <si>
-    <t>韩智凯</t>
   </si>
   <si>
     <t>马聪磊</t>
@@ -214,34 +211,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>端午</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>杨竞</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>杨竞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑州银行无纸化（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通解决iphone无法查看签章合同系pdf解码显示的问题，建议客户选用trussignpdf插件或转图片的方式提供查看。推动客户在生产环境建立数据。（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>根机构无法修改编号。客户行章采用长仿宋字体系统不支持。推动客户在生产环境建立数据。用户权限可以通过配置文件修改。编制直连改造实施方案和接口文档。（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>修订直连改造实施方案和接口文档。与柜面渠道沟通无纸化。推动客户在生产环境建立数据。准备直连改造。（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>支持沙县小吃项目上线。解决印章字体问题，定为仿宋。修订接口文档和demo程序（外出）</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -258,6 +231,14 @@
   </si>
   <si>
     <t>编写百信银行投标文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配合百信银行项目投标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品学习</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -940,13 +921,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,21 +952,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,352 +1359,6 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>22</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,5,29)</f>
-        <v>42884</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
-        <f>SUM(B2+1)</f>
-        <v>42885</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42886</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42887</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42888</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42889</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42890</v>
-      </c>
-      <c r="O2" s="36"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="28">
-        <v>11</v>
-      </c>
-      <c r="M4" s="28">
-        <v>12</v>
-      </c>
-      <c r="N4" s="28">
-        <v>13</v>
-      </c>
-      <c r="O4" s="28">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>23</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="36">
-        <f>B2+7</f>
-        <v>42891</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42892</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42893</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42894</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42895</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42896</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42897</v>
-      </c>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B9" sqref="B9"/>
     </sheetView>
@@ -1735,19 +1370,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1760,151 +1395,143 @@
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+        <v>59</v>
+      </c>
+      <c r="B2" s="34">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42892</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42893</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42894</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42895</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42896</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="28">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
-        <v>2</v>
-      </c>
-      <c r="D4" s="28">
-        <v>3</v>
-      </c>
-      <c r="E4" s="28">
-        <v>4</v>
-      </c>
-      <c r="F4" s="28">
-        <v>5</v>
-      </c>
-      <c r="G4" s="28">
-        <v>6</v>
-      </c>
-      <c r="H4" s="28">
-        <v>7</v>
-      </c>
-      <c r="I4" s="28">
-        <v>8</v>
-      </c>
-      <c r="J4" s="28">
-        <v>9</v>
-      </c>
-      <c r="K4" s="28">
-        <v>10</v>
-      </c>
-      <c r="L4" s="28">
-        <v>11</v>
-      </c>
-      <c r="M4" s="28">
-        <v>12</v>
-      </c>
-      <c r="N4" s="28">
-        <v>13</v>
-      </c>
-      <c r="O4" s="28">
-        <v>14</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1917,122 +1544,122 @@
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="36">
+        <v>59</v>
+      </c>
+      <c r="B7" s="34">
         <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42898</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42899</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42900</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42901</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42902</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42903</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2041,11 +1668,301 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="34">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="34">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="35"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2059,6 +1976,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,42 +2004,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2172,8 +2094,8 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
-        <v>44</v>
+      <c r="A4" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -2192,7 +2114,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2210,7 +2132,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2228,8 +2150,8 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>45</v>
+      <c r="A7" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
@@ -2248,9 +2170,9 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -2266,7 +2188,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2284,11 +2206,11 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>47</v>
+      <c r="A10" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
@@ -2304,9 +2226,9 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2322,9 +2244,9 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -2341,10 +2263,10 @@
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
@@ -2360,11 +2282,11 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>48</v>
+      <c r="A14" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="5"/>
@@ -2380,9 +2302,9 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2398,9 +2320,9 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -2416,11 +2338,11 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>51</v>
+      <c r="A17" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2436,9 +2358,9 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="13"/>
@@ -2454,9 +2376,9 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2472,11 +2394,11 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>52</v>
+      <c r="A20" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="13"/>
@@ -2492,9 +2414,9 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -2510,9 +2432,9 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -2529,10 +2451,10 @@
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
@@ -2549,10 +2471,10 @@
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2568,11 +2490,11 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -2588,9 +2510,9 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2606,11 +2528,11 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
-        <v>56</v>
+      <c r="A27" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2626,9 +2548,9 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -2644,9 +2566,9 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
@@ -2662,9 +2584,9 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2680,9 +2602,9 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2698,9 +2620,9 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -2716,9 +2638,9 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2734,9 +2656,9 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2752,9 +2674,9 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2770,7 +2692,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2788,9 +2710,9 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2807,6 +2729,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2817,11 +2744,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
   <si>
     <t>分组</t>
   </si>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>产品学习</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写百信银行投标文件</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -921,15 +925,24 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -943,15 +956,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1364,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1370,13 +1374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1397,41 +1401,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1519,13 +1523,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1546,41 +1550,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1635,7 +1639,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>67</v>
@@ -1668,16 +1672,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1686,6 +1680,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1709,13 +1713,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1736,41 +1740,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1836,13 +1840,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1863,41 +1867,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1963,6 +1967,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1976,11 +1985,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,32 +2008,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2038,8 +2042,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2094,7 +2098,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2114,7 +2118,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2150,7 +2154,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2170,7 +2174,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2192,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2210,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2226,7 +2230,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2244,7 +2248,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2286,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2302,7 +2306,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2320,7 +2324,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2338,7 +2342,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2358,7 +2362,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2376,7 +2380,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2394,7 +2398,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2414,7 +2418,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2490,7 +2494,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2510,7 +2514,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2548,7 +2552,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2566,7 +2570,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2584,7 +2588,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2602,7 +2606,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2620,7 +2624,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2638,7 +2642,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2656,7 +2660,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2674,7 +2678,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2692,7 +2696,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2710,7 +2714,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2729,11 +2733,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2744,6 +2743,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week 23-24" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>分组</t>
   </si>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>上午</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>杨竞</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -243,6 +239,31 @@
   </si>
   <si>
     <t>编写百信银行投标文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通百信银行投标文件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备无纸化汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备无纸化汇报
+郑行贸融需求需要支持，内部梳理方案，确认ukey签名可行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆仑银行无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行贸融无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品学习</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -925,13 +946,28 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,21 +977,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1362,9 +1383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1374,13 +1395,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1401,41 +1422,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1484,37 +1505,37 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A4" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>60</v>
       </c>
       <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="H4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>67</v>
-      </c>
       <c r="J4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1523,13 +1544,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1550,41 +1571,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1633,37 +1654,37 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="G9" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="H9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="I9" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>69</v>
-      </c>
       <c r="J9" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1672,6 +1693,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1680,16 +1711,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1701,9 +1722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1713,13 +1734,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1740,99 +1761,121 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
       <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -1840,13 +1883,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1867,41 +1910,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="34">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="34"/>
+      <c r="H7" s="34">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="34"/>
+      <c r="N7" s="34">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1949,17 +1992,39 @@
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -1967,11 +2032,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1985,6 +2045,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2008,32 +2073,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="43"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2042,8 +2107,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2098,7 +2163,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2118,7 +2183,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2136,7 +2201,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +2219,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2174,7 +2239,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2192,7 +2257,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2210,7 +2275,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2230,7 +2295,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2248,7 +2313,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2351,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2306,7 +2371,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2324,7 +2389,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2342,7 +2407,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2362,7 +2427,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +2445,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2398,7 +2463,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2418,7 +2483,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2436,7 +2501,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2494,7 +2559,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2514,7 +2579,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2532,7 +2597,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="40" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2552,7 +2617,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2570,7 +2635,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2588,7 +2653,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2606,7 +2671,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2624,7 +2689,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2642,7 +2707,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2660,7 +2725,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2678,7 +2743,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2696,7 +2761,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2779,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2733,6 +2798,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2743,11 +2813,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
   <si>
     <t>分组</t>
   </si>
@@ -255,15 +255,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>昆仑银行无纸化交流</t>
+    <t>产品学习</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>郑州银行贸融无纸化交流</t>
+    <t>（外出）昆仑银行无纸化交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>产品学习</t>
+    <t>（外出）郑州银行贸融无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外出）郑州银行贸融无纸化交流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -946,14 +950,23 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,15 +981,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,13 +1399,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1422,41 +1426,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1544,13 +1548,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1571,41 +1575,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -1693,16 +1697,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:A8"/>
@@ -1711,6 +1705,16 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1724,7 +1728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1734,13 +1738,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1761,41 +1765,41 @@
       <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="36">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="35"/>
@@ -1856,25 +1860,25 @@
         <v>72</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1883,13 +1887,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1910,41 +1914,41 @@
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
       <c r="A8" s="35"/>
@@ -2011,7 +2015,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>68</v>
@@ -2032,6 +2036,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2045,11 +2054,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,32 +2077,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2107,8 +2111,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2163,7 +2167,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2183,7 +2187,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2205,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +2223,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2239,7 +2243,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2257,7 +2261,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2275,7 +2279,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2295,7 +2299,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2313,7 +2317,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="42" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2371,7 +2375,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2389,7 +2393,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2411,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2427,7 +2431,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +2449,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2483,7 +2487,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2501,7 +2505,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2579,7 +2583,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2597,7 +2601,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2617,7 +2621,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2635,7 +2639,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2653,7 +2657,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2671,7 +2675,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2689,7 +2693,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2707,7 +2711,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2725,7 +2729,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2743,7 +2747,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2761,7 +2765,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +2783,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2798,11 +2802,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2813,6 +2812,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781" activeTab="1"/>
+    <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId1"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId1"/>
     <sheet name="Week 24-25" sheetId="7" r:id="rId2"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId3"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
   <si>
     <t>分组</t>
   </si>
@@ -268,6 +269,42 @@
   </si>
   <si>
     <t>（外出）郑州银行贸融无纸化交流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新员工培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作无纸化分享PPT
+远程沟通解决郑行问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进郑行无纸化进度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化分享</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+制作无纸化分享PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+制作无纸化分享PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+制作无纸化分享PPT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -847,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,13 +987,31 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -966,21 +1021,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1387,9 +1427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1399,19 +1439,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1423,87 +1463,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,6,5)</f>
-        <v>42891</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="35">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <f>SUM(B2+1)</f>
-        <v>42892</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>42906</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42893</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+        <v>42907</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42894</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+        <v>42908</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42895</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+        <v>42909</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42896</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+        <v>42910</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42897</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1512,34 +1552,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1548,19 +1588,19 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1572,87 +1612,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>B2+7</f>
-        <v>42898</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+        <v>42912</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42899</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+        <v>42913</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42900</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+        <v>42914</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42901</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+        <v>42915</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42902</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+        <v>42916</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42903</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+        <v>42917</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42904</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="32" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1661,34 +1701,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1699,22 +1739,22 @@
   <mergeCells count="18">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1726,9 +1766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L4" sqref="L4"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1738,13 +1778,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1762,47 +1802,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <f>DATE(2017,6,12)</f>
         <v>42898</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
         <f>SUM(B2+1)</f>
         <v>42899</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42900</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42901</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42902</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42903</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42904</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
@@ -1887,13 +1927,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1911,47 +1951,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <f>B2+7</f>
         <v>42905</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42906</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42907</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42908</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42909</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42910</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42911</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="33" t="s">
         <v>2</v>
       </c>
@@ -2036,11 +2076,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2054,6 +2089,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2062,6 +2102,345 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>23</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="35">
+        <f>DATE(2017,6,5)</f>
+        <v>42891</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35">
+        <f>SUM(B2+1)</f>
+        <v>42892</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42893</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42894</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42895</v>
+      </c>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42896</v>
+      </c>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42897</v>
+      </c>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="35">
+        <f>B2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42903</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42904</v>
+      </c>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="36"/>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2077,32 +2456,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="44"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2111,8 +2490,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2167,7 +2546,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2187,7 +2566,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="40"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +2584,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="41"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2223,7 +2602,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2243,7 +2622,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2261,7 +2640,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="41"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2279,7 +2658,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2299,7 +2678,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="40"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2317,7 +2696,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="41"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2734,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2375,7 +2754,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2393,7 +2772,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="41"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2411,7 +2790,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="38" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2431,7 +2810,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="40"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2449,7 +2828,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="41"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2467,7 +2846,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2487,7 +2866,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2505,7 +2884,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="41"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2563,7 +2942,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2583,7 +2962,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2601,7 +2980,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2621,7 +3000,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2639,7 +3018,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="43"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +3036,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2675,7 +3054,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="43"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2693,7 +3072,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2711,7 +3090,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="43"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2729,7 +3108,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2747,7 +3126,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="43"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2765,7 +3144,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2783,7 +3162,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="43"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2802,6 +3181,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2812,11 +3196,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-杨竞1.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="28200" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 25-26" sheetId="8" r:id="rId1"/>
-    <sheet name="Week 24-25" sheetId="7" r:id="rId2"/>
-    <sheet name="Week 23-24" sheetId="6" r:id="rId3"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Week 26-27" sheetId="9" r:id="rId1"/>
+    <sheet name="Week 25-26" sheetId="8" r:id="rId2"/>
+    <sheet name="Week 24-25" sheetId="7" r:id="rId3"/>
+    <sheet name="Week 23-24" sheetId="6" r:id="rId4"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="90">
   <si>
     <t>分组</t>
   </si>
@@ -305,6 +306,31 @@
   <si>
     <t>项目梳理
 制作无纸化分享PPT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化组会议
+推动郑州银行项目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化分享
+推动郑州银行项目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品学习熟悉接口
+推动郑州银行项目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品学习熟悉接口
+推动郑州银行项目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目梳理
+产品学习</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,14 +1016,17 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1429,7 +1458,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1451,7 +1480,7 @@
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1463,87 +1492,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
-        <f>DATE(2017,6,19)</f>
-        <v>42905</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="B2" s="36">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
-        <v>42906</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42907</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+        <v>42914</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42908</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+        <v>42915</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42909</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+        <v>42916</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42910</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+        <v>42917</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42911</v>
-      </c>
-      <c r="O2" s="35"/>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1552,34 +1581,34 @@
         <v>61</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -1600,7 +1629,7 @@
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1612,87 +1641,87 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="36">
         <f>B2+7</f>
-        <v>42912</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+        <v>42919</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42913</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+        <v>42920</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42914</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+        <v>42921</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42915</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+        <v>42922</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42916</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+        <v>42923</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42917</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+        <v>42924</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42918</v>
-      </c>
-      <c r="O7" s="35"/>
+        <v>42925</v>
+      </c>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1701,373 +1730,34 @@
         <v>61</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="30">
-        <f>WEEKNUM(B2)</f>
-        <v>24</v>
-      </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="35">
-        <f>DATE(2017,6,12)</f>
-        <v>42898</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
-        <f>SUM(B2+1)</f>
-        <v>42899</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
-        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42900</v>
-      </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42901</v>
-      </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42902</v>
-      </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42903</v>
-      </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42904</v>
-      </c>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="30">
-        <f>WEEKNUM(B7)</f>
-        <v>25</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="35">
-        <f>B2+7</f>
-        <v>42905</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42906</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42907</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42908</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>42909</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>42910</v>
-      </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>42911</v>
-      </c>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
-      <c r="B8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -2101,7 +1791,685 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>25</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,19)</f>
+        <v>42905</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42906</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42907</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42908</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42909</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42910</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42911</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>26</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42917</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42918</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>24</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,12)</f>
+        <v>42898</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42899</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42900</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42901</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42902</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42903</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42904</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>42910</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>42911</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -2141,47 +2509,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="36">
         <f>DATE(2017,6,5)</f>
         <v>42891</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
         <v>42892</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42893</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42894</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42895</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35">
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42896</v>
       </c>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42897</v>
       </c>
-      <c r="O2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -2290,47 +2658,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42898</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42899</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42900</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42901</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42902</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42903</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42904</v>
       </c>
-      <c r="O7" s="35"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2440,7 +2808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2456,32 +2824,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="44"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2490,8 +2858,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2546,7 +2914,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2566,7 +2934,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2584,7 +2952,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2602,7 +2970,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2622,7 +2990,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2640,7 +3008,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2658,7 +3026,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2678,7 +3046,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2696,7 +3064,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2734,7 +3102,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2754,7 +3122,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2772,7 +3140,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2790,7 +3158,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2810,7 +3178,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2828,7 +3196,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2846,7 +3214,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2866,7 +3234,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2884,7 +3252,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2942,7 +3310,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2962,7 +3330,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2980,7 +3348,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="42" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3000,7 +3368,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -3018,7 +3386,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -3036,7 +3404,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3054,7 +3422,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -3072,7 +3440,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="41"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -3090,7 +3458,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="41"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3476,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="41"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -3126,7 +3494,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="41"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3144,7 +3512,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="41"/>
+      <c r="A36" s="42"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3162,7 +3530,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
